--- a/Групування.xlsx
+++ b/Групування.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPythonProjects\equipment_distribution_spreadsheets\source_xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPythonProjects\auto_equip_distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23DC9B-86EE-4BFB-BD9E-5A11FB253088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5A0BA2-7B41-40D9-B8EF-F141F702658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3115,8 +3115,8 @@
   <dimension ref="A1:M680"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M681" sqref="M681"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
